--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
   </si>
 </sst>
 </file>
@@ -132,7 +138,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -156,7 +162,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
